--- a/IndexMapping-1.xlsx
+++ b/IndexMapping-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\Credit and Risk\RePlatform\Draft\Git for Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniela\Documents\GitHub\ProductTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="566">
   <si>
     <t>CHF-LIBOR-BBA</t>
   </si>
@@ -1731,6 +1731,9 @@
   </si>
   <si>
     <t>KRW-CD-KSDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EUR-EONIA123</t>
   </si>
 </sst>
 </file>
@@ -3046,7 +3049,7 @@
   <dimension ref="A1:J478"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3609,7 +3612,7 @@
         <v>184</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>565</v>
       </c>
       <c r="C31" t="s">
         <v>467</v>
